--- a/public/data/yield_loss/yield_table_republic_of_the_congo.xlsx
+++ b/public/data/yield_loss/yield_table_republic_of_the_congo.xlsx
@@ -1332,7 +1332,7 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>249.83</v>
+        <v>249.76</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>43.65</v>
+        <v>43.64</v>
       </c>
       <c r="G4" t="n">
         <v>2.86</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>328.14</v>
+        <v>328.09</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>8.11</v>
       </c>
       <c r="L5" t="n">
-        <v>231.46</v>
+        <v>231.4</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>785.84</v>
+        <v>624.3</v>
       </c>
       <c r="G6" t="n">
         <v>2053.82</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6154.26</v>
+        <v>4756.88</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>104.92</v>
+        <v>100.22</v>
       </c>
       <c r="G9" t="n">
         <v>348.37</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>780.44</v>
+        <v>747.16</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>83</v>
+        <v>82.71</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>54.03</v>
+        <v>52.34</v>
       </c>
       <c r="G11" t="n">
         <v>330.06</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>398.2</v>
+        <v>386.77</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.34</v>
+        <v>90.03</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>134.96</v>
+        <v>97.58</v>
       </c>
       <c r="G13" t="n">
         <v>1965.14</v>
@@ -2212,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1204.9</v>
+        <v>929.48</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>300.97</v>
+        <v>299.26</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.75</v>
+        <v>21.84</v>
       </c>
       <c r="V13" t="n">
         <v>1306.88</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>63.99</v>
+        <v>63.03</v>
       </c>
       <c r="G14" t="n">
         <v>85.24</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>469.47</v>
+        <v>462.38</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>174.29</v>
+        <v>178.29</v>
       </c>
       <c r="G15" t="n">
         <v>2773.31</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1587.07</v>
+        <v>1647.7</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>268.17</v>
+        <v>266.19</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>8.54</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
         <v>2229.43</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.25</v>
+        <v>29.66</v>
       </c>
       <c r="G16" t="n">
         <v>353</v>
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>401.33</v>
+        <v>294.87</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>92.5</v>
+        <v>92.47</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.74</v>
+        <v>6.2</v>
       </c>
       <c r="V16" t="n">
         <v>216.04</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11.86</v>
+        <v>11.78</v>
       </c>
       <c r="G17" t="n">
         <v>30.76</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>108.49</v>
+        <v>107.84</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="G18" t="n">
         <v>1.94</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.43</v>
+        <v>29.38</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.26</v>
+        <v>13.25</v>
       </c>
       <c r="G20" t="n">
         <v>4.16</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.42</v>
+        <v>8.16</v>
       </c>
       <c r="G22" t="n">
         <v>115.13</v>
@@ -2932,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>120.58</v>
+        <v>104.82</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>154.89</v>
+        <v>131.81</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.85</v>
+        <v>22.34</v>
       </c>
       <c r="V22" t="n">
         <v>136.84</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31.95</v>
+        <v>25.73</v>
       </c>
       <c r="G23" t="n">
         <v>38.64</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>233.71</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.37</v>
+        <v>107.35</v>
       </c>
       <c r="G24" t="n">
         <v>10.35</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>734.51</v>
+        <v>734.37</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>91.36</v>
+        <v>44.05</v>
       </c>
       <c r="G25" t="n">
         <v>935.16</v>
@@ -3172,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>706.72</v>
+        <v>318.77</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>211.4</v>
+        <v>179.89</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>337.16</v>
       </c>
       <c r="W25" t="n">
-        <v>80.83</v>
+        <v>80.8</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>50.51</v>
+        <v>47.31</v>
       </c>
       <c r="G29" t="n">
         <v>80.61</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>805.71</v>
+        <v>770.7</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>38.79</v>
+        <v>38.96</v>
       </c>
       <c r="V29" t="n">
         <v>71.8</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>228.42</v>
+        <v>228.23</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>0.06</v>
       </c>
       <c r="F31" t="n">
-        <v>130.88</v>
+        <v>130.69</v>
       </c>
       <c r="G31" t="n">
         <v>17.46</v>
@@ -3649,10 +3649,10 @@
         <v>0.02</v>
       </c>
       <c r="K31" t="n">
-        <v>30.08</v>
+        <v>30.07</v>
       </c>
       <c r="L31" t="n">
-        <v>225.17</v>
+        <v>224.85</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>52.68</v>
       </c>
       <c r="O31" t="n">
-        <v>28.34</v>
+        <v>28.3</v>
       </c>
       <c r="P31" t="n">
         <v>22.25</v>
@@ -3679,7 +3679,7 @@
         <v>0.46</v>
       </c>
       <c r="U31" t="n">
-        <v>7.51</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
         <v>1.35</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.59</v>
+        <v>33.08</v>
       </c>
       <c r="G33" t="n">
         <v>324.62</v>
@@ -3812,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.36</v>
+        <v>307.52</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>65.55</v>
+        <v>65.22</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.43</v>
+        <v>1.26</v>
       </c>
       <c r="V33" t="n">
         <v>837.79</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.01</v>
+        <v>24.88</v>
       </c>
       <c r="G34" t="n">
         <v>15.54</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>189.12</v>
+        <v>188.21</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>96.23</v>
+        <v>94.42</v>
       </c>
       <c r="G35" t="n">
         <v>519.62</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>715.06</v>
+        <v>703.45</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>121.08</v>
+        <v>120.88</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>245.28</v>
+        <v>162.83</v>
       </c>
       <c r="G36" t="n">
         <v>2856.75</v>
@@ -4049,22 +4049,22 @@
         <v>0.17</v>
       </c>
       <c r="K36" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="L36" t="n">
-        <v>1956.39</v>
+        <v>1341.58</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>436.3</v>
+        <v>434.45</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>278.02</v>
+        <v>277.52</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0.19</v>
       </c>
       <c r="U36" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="V36" t="n">
         <v>795.1</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.64</v>
+        <v>135.53</v>
       </c>
       <c r="G37" t="n">
         <v>1249.99</v>
@@ -4132,19 +4132,19 @@
         <v>0.07</v>
       </c>
       <c r="L37" t="n">
-        <v>1218.16</v>
+        <v>1123.12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>181.22</v>
+        <v>180.61</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>155.16</v>
+        <v>154.88</v>
       </c>
       <c r="Q37" t="n">
         <v>0.02</v>
@@ -4159,7 +4159,7 @@
         <v>0.06</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="V37" t="n">
         <v>409.42</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>32.61</v>
+        <v>27.74</v>
       </c>
       <c r="G38" t="n">
         <v>563.04</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>253.66</v>
+        <v>215.65</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>128.79</v>
+        <v>128.41</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V38" t="n">
         <v>73.03</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>416.84</v>
+        <v>355.5</v>
       </c>
       <c r="G40" t="n">
         <v>1108.6</v>
@@ -4369,19 +4369,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>85.29</v>
+        <v>77.14</v>
       </c>
       <c r="L40" t="n">
-        <v>2420.59</v>
+        <v>2115.87</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>136.88</v>
+        <v>136.86</v>
       </c>
       <c r="O40" t="n">
-        <v>41.16</v>
+        <v>35.13</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>1.29</v>
       </c>
       <c r="U40" t="n">
-        <v>31.79</v>
+        <v>28.81</v>
       </c>
       <c r="V40" t="n">
         <v>1023.71</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3670.37</v>
+        <v>1277.43</v>
       </c>
       <c r="G41" t="n">
         <v>11325.91</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>27789.41</v>
+        <v>9850.58</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>956.38</v>
+        <v>870.08</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>16781.42</v>
       </c>
       <c r="W41" t="n">
-        <v>650.03</v>
+        <v>649.67</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>764.03</v>
+        <v>518.47</v>
       </c>
       <c r="G42" t="n">
         <v>3672.82</v>
@@ -4529,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.84</v>
+        <v>7.97</v>
       </c>
       <c r="L42" t="n">
-        <v>7118.36</v>
+        <v>4799.7</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>222.26</v>
+        <v>218.66</v>
       </c>
       <c r="O42" t="n">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0.11</v>
       </c>
       <c r="U42" t="n">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="V42" t="n">
         <v>5173.9</v>
       </c>
       <c r="W42" t="n">
-        <v>251.87</v>
+        <v>251.84</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>239.44</v>
+        <v>158.03</v>
       </c>
       <c r="G43" t="n">
         <v>3366.26</v>
@@ -4612,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2177.44</v>
+        <v>1404.43</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>330.46</v>
+        <v>314.03</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>2117.93</v>
       </c>
       <c r="W43" t="n">
-        <v>155.51</v>
+        <v>155.35</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>804.18</v>
+        <v>536.91</v>
       </c>
       <c r="G44" t="n">
         <v>2287.16</v>
@@ -4689,19 +4689,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>23.78</v>
+        <v>23.12</v>
       </c>
       <c r="L44" t="n">
-        <v>6531.02</v>
+        <v>3912.52</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>217.08</v>
+        <v>212.5</v>
       </c>
       <c r="O44" t="n">
-        <v>13.87</v>
+        <v>13.27</v>
       </c>
       <c r="P44" t="n">
         <v>0.05</v>
@@ -4719,13 +4719,13 @@
         <v>0.46</v>
       </c>
       <c r="U44" t="n">
-        <v>9.12</v>
+        <v>8.88</v>
       </c>
       <c r="V44" t="n">
         <v>2795.25</v>
       </c>
       <c r="W44" t="n">
-        <v>205.85</v>
+        <v>205.78</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>149.95</v>
+        <v>137.78</v>
       </c>
       <c r="G45" t="n">
         <v>1845.2</v>
@@ -4769,22 +4769,22 @@
         <v>0.7</v>
       </c>
       <c r="K45" t="n">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1273.46</v>
+        <v>1192.38</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>266.14</v>
+        <v>264.12</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.16</v>
+        <v>123.87</v>
       </c>
       <c r="Q45" t="n">
         <v>0.1</v>
@@ -4799,7 +4799,7 @@
         <v>0.25</v>
       </c>
       <c r="U45" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="V45" t="n">
         <v>1139.22</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>248.17</v>
+        <v>211.41</v>
       </c>
       <c r="G46" t="n">
         <v>1778.78</v>
@@ -4849,19 +4849,19 @@
         <v>1.18</v>
       </c>
       <c r="K46" t="n">
-        <v>27.71</v>
+        <v>29.45</v>
       </c>
       <c r="L46" t="n">
-        <v>1967.71</v>
+        <v>1716.8</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>439.2</v>
+        <v>432.52</v>
       </c>
       <c r="O46" t="n">
-        <v>11.59</v>
+        <v>11.67</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0.95</v>
       </c>
       <c r="U46" t="n">
-        <v>15.19</v>
+        <v>15.44</v>
       </c>
       <c r="V46" t="n">
         <v>1090.42</v>
       </c>
       <c r="W46" t="n">
-        <v>131.64</v>
+        <v>131.6</v>
       </c>
       <c r="X46" t="n">
         <v>0.06</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>25.41</v>
+        <v>24.68</v>
       </c>
       <c r="G47" t="n">
         <v>30.67</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>184.22</v>
+        <v>178.92</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4.46</v>
+        <v>4.37</v>
       </c>
       <c r="G49" t="n">
         <v>9.35</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>70.4</v>
+        <v>66.54</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="V49" t="n">
         <v>4.55</v>
